--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf9-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H2">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>9.542214402749998</v>
+        <v>2.702949009376</v>
       </c>
       <c r="R2">
-        <v>85.87992962474999</v>
+        <v>24.326541084384</v>
       </c>
       <c r="S2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="T2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H3">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +626,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>1.5243583365</v>
+        <v>0.3858295548239999</v>
       </c>
       <c r="R3">
-        <v>13.7192250285</v>
+        <v>3.472465993416</v>
       </c>
       <c r="S3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="T3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.29025</v>
+        <v>0.579684</v>
       </c>
       <c r="H4">
-        <v>6.870749999999999</v>
+        <v>1.739052</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +682,152 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>2.3223364025</v>
+        <v>0.4576122109999999</v>
       </c>
       <c r="R4">
-        <v>20.9010276225</v>
+        <v>4.118509898999999</v>
       </c>
       <c r="S4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="T4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.579684</v>
+      </c>
+      <c r="H5">
+        <v>1.739052</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.241735</v>
+      </c>
+      <c r="O5">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P5">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q5">
+        <v>0.04670997058</v>
+      </c>
+      <c r="R5">
+        <v>0.42038973522</v>
+      </c>
+      <c r="S5">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="T5">
+        <v>0.01265840681643176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.579684</v>
+      </c>
+      <c r="H6">
+        <v>1.739052</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.16722</v>
+      </c>
+      <c r="N6">
+        <v>0.50166</v>
+      </c>
+      <c r="O6">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P6">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q6">
+        <v>0.09693475847999999</v>
+      </c>
+      <c r="R6">
+        <v>0.8724128263200001</v>
+      </c>
+      <c r="S6">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="T6">
+        <v>0.02626932948696365</v>
       </c>
     </row>
   </sheetData>
